--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tfpi-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tfpi-Vldlr.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.745631333333333</v>
+        <v>1.611874666666667</v>
       </c>
       <c r="H2">
-        <v>11.236894</v>
+        <v>4.835624</v>
       </c>
       <c r="I2">
-        <v>0.1419671142338921</v>
+        <v>0.06646895152072402</v>
       </c>
       <c r="J2">
-        <v>0.1419671142338921</v>
+        <v>0.06646895152072402</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.06089466666666666</v>
+        <v>0.2936666666666667</v>
       </c>
       <c r="N2">
-        <v>0.182684</v>
+        <v>0.881</v>
       </c>
       <c r="O2">
-        <v>0.001903591634475228</v>
+        <v>0.009113820319201367</v>
       </c>
       <c r="P2">
-        <v>0.001903591634475228</v>
+        <v>0.009113820319201367</v>
       </c>
       <c r="Q2">
-        <v>0.2280889714995555</v>
+        <v>0.4733538604444445</v>
       </c>
       <c r="R2">
-        <v>2.052800743496</v>
+        <v>4.260184744</v>
       </c>
       <c r="S2">
-        <v>0.000270247411026226</v>
+        <v>0.0006057860809655851</v>
       </c>
       <c r="T2">
-        <v>0.000270247411026226</v>
+        <v>0.0006057860809655851</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.745631333333333</v>
+        <v>1.611874666666667</v>
       </c>
       <c r="H3">
-        <v>11.236894</v>
+        <v>4.835624</v>
       </c>
       <c r="I3">
-        <v>0.1419671142338921</v>
+        <v>0.06646895152072402</v>
       </c>
       <c r="J3">
-        <v>0.1419671142338921</v>
+        <v>0.06646895152072402</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>84.138969</v>
       </c>
       <c r="O3">
-        <v>0.8767392739472014</v>
+        <v>0.870405726797791</v>
       </c>
       <c r="P3">
-        <v>0.8767392739472013</v>
+        <v>0.870405726797791</v>
       </c>
       <c r="Q3">
-        <v>105.0511862135873</v>
+        <v>45.20715753685067</v>
       </c>
       <c r="R3">
-        <v>945.460675922286</v>
+        <v>406.864417831656</v>
       </c>
       <c r="S3">
-        <v>0.1244681446578019</v>
+        <v>0.05785495605788293</v>
       </c>
       <c r="T3">
-        <v>0.1244681446578019</v>
+        <v>0.05785495605788293</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.745631333333333</v>
+        <v>1.611874666666667</v>
       </c>
       <c r="H4">
-        <v>11.236894</v>
+        <v>4.835624</v>
       </c>
       <c r="I4">
-        <v>0.1419671142338921</v>
+        <v>0.06646895152072402</v>
       </c>
       <c r="J4">
-        <v>0.1419671142338921</v>
+        <v>0.06646895152072402</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>11.646409</v>
       </c>
       <c r="O4">
-        <v>0.1213571344183235</v>
+        <v>0.1204804528830076</v>
       </c>
       <c r="P4">
-        <v>0.1213571344183235</v>
+        <v>0.1204804528830076</v>
       </c>
       <c r="Q4">
-        <v>14.54105149040511</v>
+        <v>6.257517208246223</v>
       </c>
       <c r="R4">
-        <v>130.869463413646</v>
+        <v>56.317654874216</v>
       </c>
       <c r="S4">
-        <v>0.01722872216506392</v>
+        <v>0.008008209381875504</v>
       </c>
       <c r="T4">
-        <v>0.01722872216506392</v>
+        <v>0.008008209381875504</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>47.06867</v>
       </c>
       <c r="I5">
-        <v>0.5946663954227359</v>
+        <v>0.6469909869698216</v>
       </c>
       <c r="J5">
-        <v>0.5946663954227359</v>
+        <v>0.6469909869698216</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06089466666666666</v>
+        <v>0.2936666666666667</v>
       </c>
       <c r="N5">
-        <v>0.182684</v>
+        <v>0.881</v>
       </c>
       <c r="O5">
-        <v>0.001903591634475228</v>
+        <v>0.009113820319201367</v>
       </c>
       <c r="P5">
-        <v>0.001903591634475228</v>
+        <v>0.009113820319201367</v>
       </c>
       <c r="Q5">
-        <v>0.9554103233644443</v>
+        <v>4.607499807777778</v>
       </c>
       <c r="R5">
-        <v>8.598692910279999</v>
+        <v>41.46749827</v>
       </c>
       <c r="S5">
-        <v>0.001132001975630258</v>
+        <v>0.005896559603385707</v>
       </c>
       <c r="T5">
-        <v>0.001132001975630258</v>
+        <v>0.005896559603385707</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>47.06867</v>
       </c>
       <c r="I6">
-        <v>0.5946663954227359</v>
+        <v>0.6469909869698216</v>
       </c>
       <c r="J6">
-        <v>0.5946663954227359</v>
+        <v>0.6469909869698216</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>84.138969</v>
       </c>
       <c r="O6">
-        <v>0.8767392739472014</v>
+        <v>0.870405726797791</v>
       </c>
       <c r="P6">
-        <v>0.8767392739472013</v>
+        <v>0.870405726797791</v>
       </c>
       <c r="Q6">
         <v>440.0343740001367</v>
@@ -818,10 +818,10 @@
         <v>3960.30936600123</v>
       </c>
       <c r="S6">
-        <v>0.5213673837637288</v>
+        <v>0.5631446602450877</v>
       </c>
       <c r="T6">
-        <v>0.5213673837637288</v>
+        <v>0.5631446602450877</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>47.06867</v>
       </c>
       <c r="I7">
-        <v>0.5946663954227359</v>
+        <v>0.6469909869698216</v>
       </c>
       <c r="J7">
-        <v>0.5946663954227359</v>
+        <v>0.6469909869698216</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>11.646409</v>
       </c>
       <c r="O7">
-        <v>0.1213571344183235</v>
+        <v>0.1204804528830076</v>
       </c>
       <c r="P7">
-        <v>0.1213571344183235</v>
+        <v>0.1204804528830076</v>
       </c>
       <c r="Q7">
         <v>60.90899798955889</v>
@@ -880,10 +880,10 @@
         <v>548.18098190603</v>
       </c>
       <c r="S7">
-        <v>0.07216700968337686</v>
+        <v>0.07794976712134816</v>
       </c>
       <c r="T7">
-        <v>0.07216700968337686</v>
+        <v>0.07794976712134816</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>20.845823</v>
       </c>
       <c r="I8">
-        <v>0.263366490343372</v>
+        <v>0.2865400615094543</v>
       </c>
       <c r="J8">
-        <v>0.263366490343372</v>
+        <v>0.2865400615094543</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.06089466666666666</v>
+        <v>0.2936666666666667</v>
       </c>
       <c r="N8">
-        <v>0.182684</v>
+        <v>0.881</v>
       </c>
       <c r="O8">
-        <v>0.001903591634475228</v>
+        <v>0.009113820319201367</v>
       </c>
       <c r="P8">
-        <v>0.001903591634475228</v>
+        <v>0.009113820319201367</v>
       </c>
       <c r="Q8">
-        <v>0.4231331476591111</v>
+        <v>2.040574451444445</v>
       </c>
       <c r="R8">
-        <v>3.808198328931999</v>
+        <v>18.365170063</v>
       </c>
       <c r="S8">
-        <v>0.0005013422478187437</v>
+        <v>0.002611474634850074</v>
       </c>
       <c r="T8">
-        <v>0.0005013422478187437</v>
+        <v>0.002611474634850074</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>20.845823</v>
       </c>
       <c r="I9">
-        <v>0.263366490343372</v>
+        <v>0.2865400615094543</v>
       </c>
       <c r="J9">
-        <v>0.263366490343372</v>
+        <v>0.2865400615094543</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>84.138969</v>
       </c>
       <c r="O9">
-        <v>0.8767392739472014</v>
+        <v>0.870405726797791</v>
       </c>
       <c r="P9">
-        <v>0.8767392739472013</v>
+        <v>0.870405726797791</v>
       </c>
       <c r="Q9">
         <v>194.8828950196097</v>
@@ -1004,10 +1004,10 @@
         <v>1753.946055176487</v>
       </c>
       <c r="S9">
-        <v>0.2309037455256706</v>
+        <v>0.2494061104948203</v>
       </c>
       <c r="T9">
-        <v>0.2309037455256706</v>
+        <v>0.2494061104948203</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>20.845823</v>
       </c>
       <c r="I10">
-        <v>0.263366490343372</v>
+        <v>0.2865400615094543</v>
       </c>
       <c r="J10">
-        <v>0.263366490343372</v>
+        <v>0.2865400615094543</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>11.646409</v>
       </c>
       <c r="O10">
-        <v>0.1213571344183235</v>
+        <v>0.1204804528830076</v>
       </c>
       <c r="P10">
-        <v>0.1213571344183235</v>
+        <v>0.1204804528830076</v>
       </c>
       <c r="Q10">
         <v>26.97544228884522</v>
@@ -1066,10 +1066,10 @@
         <v>242.778980599607</v>
       </c>
       <c r="S10">
-        <v>0.03196140256988268</v>
+        <v>0.0345224763797839</v>
       </c>
       <c r="T10">
-        <v>0.03196140256988268</v>
+        <v>0.0345224763797839</v>
       </c>
     </row>
   </sheetData>
